--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44064,6 +44064,41 @@
         <v>111500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>33900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44099,6 +44099,41 @@
         <v>33900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>15200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44134,6 +44134,41 @@
         <v>15200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>14400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44169,6 +44169,41 @@
         <v>14400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>22400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44204,6 +44204,41 @@
         <v>22400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44239,6 +44239,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>26900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44274,6 +44274,41 @@
         <v>26900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>70500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44309,6 +44309,41 @@
         <v>70500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>32800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44344,6 +44344,41 @@
         <v>32800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>12700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44379,6 +44379,41 @@
         <v>12700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>14600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44414,6 +44414,41 @@
         <v>14600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44449,6 +44449,76 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>47600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44519,6 +44519,78 @@
         <v>47600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44591,6 +44591,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44626,6 +44626,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44661,6 +44661,41 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>26100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44696,6 +44696,41 @@
         <v>26100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>24200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44731,6 +44731,76 @@
         <v>24200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44801,6 +44801,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44836,6 +44836,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>22700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2044"/>
+  <dimension ref="A1:I2045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72976,6 +72976,41 @@
         <v>22700</v>
       </c>
     </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>23300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2045"/>
+  <dimension ref="A1:I2046"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73011,6 +73011,41 @@
         <v>23300</v>
       </c>
     </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>68100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2046"/>
+  <dimension ref="A1:I2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73046,6 +73046,41 @@
         <v>68100</v>
       </c>
     </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>28100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2047"/>
+  <dimension ref="A1:I2048"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73081,6 +73081,41 @@
         <v>28100</v>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>116200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2048"/>
+  <dimension ref="A1:I2049"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73116,6 +73116,41 @@
         <v>116200</v>
       </c>
     </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>77500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2049"/>
+  <dimension ref="A1:I2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73151,6 +73151,41 @@
         <v>77500</v>
       </c>
     </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>5800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2050"/>
+  <dimension ref="A1:I2051"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73186,6 +73186,41 @@
         <v>5800</v>
       </c>
     </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2051" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I2051" t="n">
+        <v>26400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2051"/>
+  <dimension ref="A1:I2052"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73221,6 +73221,41 @@
         <v>26400</v>
       </c>
     </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H2052" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I2052" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2052"/>
+  <dimension ref="A1:I2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73256,6 +73256,41 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H2053" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I2053" t="n">
+        <v>64100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2053"/>
+  <dimension ref="A1:I2054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73291,6 +73291,41 @@
         <v>64100</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2054" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2054" t="n">
+        <v>73800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2054"/>
+  <dimension ref="A1:I2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73326,6 +73326,41 @@
         <v>73800</v>
       </c>
     </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2055" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I2055" t="n">
+        <v>11600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73361,6 +73361,41 @@
         <v>11600</v>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>30800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73396,6 +73396,41 @@
         <v>30800</v>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>26400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73431,6 +73431,41 @@
         <v>26400</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0002.xlsx
+++ b/data/0002.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73466,6 +73466,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>0002</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>KOTRA</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
